--- a/Notificações de Multas - Condutor Identificado.xlsx
+++ b/Notificações de Multas - Condutor Identificado.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8290,28 +8290,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I964" workbookViewId="0">
-      <selection activeCell="U969" sqref="U969"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
